--- a/03 Banking System Simulation/accounts.xlsx
+++ b/03 Banking System Simulation/accounts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,17 +445,47 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>353828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11</v>
+        <v>160135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>254695</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>676624</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>17492</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>480856</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>802748</v>
       </c>
     </row>
   </sheetData>
